--- a/RTM & Test Summary & Sprint Retrospective.xlsx
+++ b/RTM & Test Summary & Sprint Retrospective.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drija\Desktop\Revature\Example-Test-Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210AE29D-D56C-441D-AE0F-84BE40D028D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD1D7A-B2DF-484D-A844-32D11E681489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3345" windowWidth="29040" windowHeight="15840" tabRatio="715" xr2:uid="{F782749A-F44B-4770-ADC0-B107849E38C9}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -1651,6 +1651,15 @@
   </si>
   <si>
     <t>During testing, I was able to uncover  bugs and issues in the existing project, which can now be addressed.</t>
+  </si>
+  <si>
+    <t>I need to do more manual testing by using the app like a regular user, trying out different inputs, and checking how it works in different situations. This can help me find problems that automated tests might miss.</t>
+  </si>
+  <si>
+    <t>I need to use Jira more to track tasks, bugs, and progress so I can stay more organized and keep better records of what I’ve done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was able to learn new testing software like Selenium and Cucumbe</t>
   </si>
 </sst>
 </file>
@@ -2065,6 +2074,102 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,37 +2203,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2137,92 +2230,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2692,7 +2701,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="F15" sqref="F15:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2706,369 +2715,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="25" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="74">
+      <c r="D2" s="36"/>
+      <c r="E2" s="40">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="43" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="59"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="59"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="59"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="59"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="59"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="59"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="60"/>
-      <c r="B8" s="68" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="60"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74">
+      <c r="D9" s="36"/>
+      <c r="E9" s="40">
         <v>4</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="43" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="60"/>
-      <c r="B10" s="68" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="60"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="74">
+      <c r="D11" s="36"/>
+      <c r="E11" s="40">
         <v>4</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="43" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="59"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="59"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="59"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="59"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="60"/>
-      <c r="B14" s="68" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="60"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="74">
+      <c r="D15" s="36"/>
+      <c r="E15" s="40">
         <v>2</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="43" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="59"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="59"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="59"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="59"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="59"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="59"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="59"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="59"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="44"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="59"/>
-      <c r="B23" s="67" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="59"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="59"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="59"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="59"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="60"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="77">
+      <c r="D27" s="34"/>
+      <c r="E27" s="39">
         <v>4</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="29" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A26"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E14"/>
@@ -3077,10 +3090,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="F15:F26"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3088,49 +3097,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302DA672-FCC7-4FC7-B9D2-51676069384D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="48.796875" customWidth="1"/>
-    <col min="2" max="2" width="42.53125" customWidth="1"/>
-    <col min="3" max="3" width="38.53125" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="25" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B3" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C3" s="26" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="68" t="s">
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B4" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C4" s="32" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3679,10 +3699,10 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3691,44 +3711,44 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="39"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="39"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="39"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="39"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="39"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="39"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -3736,45 +3756,45 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="39"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="39"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="39"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="39"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3782,29 +3802,29 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="39"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="39"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="39"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="53" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -3812,29 +3832,29 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="39"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="51" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -3842,38 +3862,38 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="39"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="39"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="39"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3881,22 +3901,22 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="39"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="55" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -3904,24 +3924,24 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="39"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="64" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -3929,43 +3949,43 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="30"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="30"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="30"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="30"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="30"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="30"/>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="65" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -3973,43 +3993,43 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="30"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="30"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="30"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="30"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="30"/>
-      <c r="B44" s="35"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="30"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -4017,36 +4037,36 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="30"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="30"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="30"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="30"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="30"/>
-      <c r="B50" s="26" t="s">
+      <c r="A50" s="62"/>
+      <c r="B50" s="58" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="19" t="s">
@@ -4054,38 +4074,38 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="30"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="30"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="30"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="31"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="64" t="s">
         <v>67</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -4093,36 +4113,36 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="30"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="30"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="30"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="30"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="30"/>
-      <c r="B60" s="33" t="s">
+      <c r="A60" s="62"/>
+      <c r="B60" s="65" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -4130,36 +4150,36 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="30"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="30"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="30"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="30"/>
-      <c r="B64" s="35"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="30"/>
-      <c r="B65" s="25" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="19" t="s">
@@ -4167,36 +4187,36 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="30"/>
-      <c r="B66" s="26"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="30"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="30"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="58"/>
       <c r="C68" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="30"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="30"/>
-      <c r="B70" s="26" t="s">
+      <c r="A70" s="62"/>
+      <c r="B70" s="58" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="19" t="s">
@@ -4204,29 +4224,29 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="30"/>
-      <c r="B71" s="26"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="30"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="30"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="31"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="20" t="s">
         <v>144</v>
       </c>
@@ -4251,16 +4271,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A14:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="A33:A54"/>
@@ -4271,6 +4281,16 @@
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A14:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4296,28 +4316,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
@@ -4384,16 +4404,16 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
@@ -4485,11 +4505,11 @@
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
@@ -4660,11 +4680,11 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
@@ -4821,18 +4841,18 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
@@ -4871,11 +4891,11 @@
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="52"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="72"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
@@ -4933,11 +4953,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="55"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="74"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
@@ -5017,18 +5037,18 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="69"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
@@ -5085,11 +5105,11 @@
       <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="51"/>
-      <c r="C73" s="52"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="72"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
@@ -5295,18 +5315,18 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="76"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A98" s="49" t="s">
+      <c r="A98" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B98" s="49"/>
-      <c r="C98" s="50"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="69"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
@@ -5327,11 +5347,11 @@
       <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B101" s="51"/>
-      <c r="C101" s="52"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="72"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="4" t="s">
@@ -5367,12 +5387,12 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="4" t="s">
@@ -5407,18 +5427,18 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="B112" s="47"/>
-      <c r="C112" s="48"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="76"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B113" s="49"/>
-      <c r="C113" s="50"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="69"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
@@ -5439,11 +5459,11 @@
       <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="52"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="72"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
@@ -5479,12 +5499,12 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="54"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
@@ -5520,6 +5540,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A22:C22"/>
@@ -5535,14 +5563,6 @@
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A105:D105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
